--- a/qut/experiment_20170905_20170913_cinque.xlsx
+++ b/qut/experiment_20170905_20170913_cinque.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cholette\Dropbox\research\toolboxes_and_code\python_soiling_model\HelioSoil\data\public\qut_experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/cholette_qut_edu_au/Documents/ASTRI/python_soiling_model/mirror_soiling_data/qut/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06B947F-F40F-41E8-B5A1-EF752DA3DD6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{A06B947F-F40F-41E8-B5A1-EF752DA3DD6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CFA6FB5-2DE1-4B3B-8081-58AB3C381C45}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-360" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dust" sheetId="6" r:id="rId1"/>
@@ -20,9 +20,6 @@
     <sheet name="Reflectance_Average" sheetId="4" r:id="rId5"/>
     <sheet name="Reflectance_Sigma" sheetId="5" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -185,7 +182,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -2087,1006 +2084,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Dust"/>
-      <sheetName val="Source_Intensity"/>
-      <sheetName val="Weather"/>
-      <sheetName val="Tilts"/>
-      <sheetName val="Reflectance_Average"/>
-      <sheetName val="Reflectance_Sigma"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Source Intensity (W/m^2 nm)</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>490</v>
-          </cell>
-          <cell r="B2">
-            <v>1.5338106793244656E-3</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>491</v>
-          </cell>
-          <cell r="B3">
-            <v>1.9001926561053196E-3</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>492</v>
-          </cell>
-          <cell r="B4">
-            <v>2.3456329471668626E-3</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>493</v>
-          </cell>
-          <cell r="B5">
-            <v>2.8850876448099608E-3</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>494</v>
-          </cell>
-          <cell r="B6">
-            <v>3.5358555015075786E-3</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>495</v>
-          </cell>
-          <cell r="B7">
-            <v>4.3178400076330815E-3</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>496</v>
-          </cell>
-          <cell r="B8">
-            <v>5.2538192009853931E-3</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>497</v>
-          </cell>
-          <cell r="B9">
-            <v>6.369718512085289E-3</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>498</v>
-          </cell>
-          <cell r="B10">
-            <v>7.6948808183874848E-3</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>499</v>
-          </cell>
-          <cell r="B11">
-            <v>9.2623266850553852E-3</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>500</v>
-          </cell>
-          <cell r="B12">
-            <v>1.1108996538242306E-2</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>501</v>
-          </cell>
-          <cell r="B13">
-            <v>1.3275965284957046E-2</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>502</v>
-          </cell>
-          <cell r="B14">
-            <v>1.5808618705241848E-2</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>503</v>
-          </cell>
-          <cell r="B15">
-            <v>1.875677984858105E-2</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>504</v>
-          </cell>
-          <cell r="B16">
-            <v>2.2174772724855216E-2</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>505</v>
-          </cell>
-          <cell r="B17">
-            <v>2.6121409853918254E-2</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>506</v>
-          </cell>
-          <cell r="B18">
-            <v>3.0659889794007553E-2</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>507</v>
-          </cell>
-          <cell r="B19">
-            <v>3.5857590676413885E-2</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>508</v>
-          </cell>
-          <cell r="B20">
-            <v>4.1785746099929272E-2</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>509</v>
-          </cell>
-          <cell r="B21">
-            <v>4.8518990547354E-2</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>510</v>
-          </cell>
-          <cell r="B22">
-            <v>5.6134762834133725E-2</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>511</v>
-          </cell>
-          <cell r="B23">
-            <v>6.4712558031226858E-2</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>512</v>
-          </cell>
-          <cell r="B24">
-            <v>7.4333020850789674E-2</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>513</v>
-          </cell>
-          <cell r="B25">
-            <v>8.5076876655682046E-2</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>514</v>
-          </cell>
-          <cell r="B26">
-            <v>9.7023700041287075E-2</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>515</v>
-          </cell>
-          <cell r="B27">
-            <v>0.11025052530448531</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>516</v>
-          </cell>
-          <cell r="B28">
-            <v>0.12483030799583289</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>517</v>
-          </cell>
-          <cell r="B29">
-            <v>0.14083025205384148</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>518</v>
-          </cell>
-          <cell r="B30">
-            <v>0.1583100226219388</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>519</v>
-          </cell>
-          <cell r="B31">
-            <v>0.17731987039779637</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>520</v>
-          </cell>
-          <cell r="B32">
-            <v>0.19789869908361474</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>521</v>
-          </cell>
-          <cell r="B33">
-            <v>0.22007211299479595</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>522</v>
-          </cell>
-          <cell r="B34">
-            <v>0.2438504869265247</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>523</v>
-          </cell>
-          <cell r="B35">
-            <v>0.26922710474659961</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>524</v>
-          </cell>
-          <cell r="B36">
-            <v>0.29617641665026678</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>525</v>
-          </cell>
-          <cell r="B37">
-            <v>0.32465246735834968</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>526</v>
-          </cell>
-          <cell r="B38">
-            <v>0.35458754856089897</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>527</v>
-          </cell>
-          <cell r="B39">
-            <v>0.38589112843021905</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>528</v>
-          </cell>
-          <cell r="B40">
-            <v>0.41844910891303544</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>529</v>
-          </cell>
-          <cell r="B41">
-            <v>0.45212345767308282</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>530</v>
-          </cell>
-          <cell r="B42">
-            <v>0.48675225595997168</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>531</v>
-          </cell>
-          <cell r="B43">
-            <v>0.52215019635797977</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44">
-            <v>532</v>
-          </cell>
-          <cell r="B44">
-            <v>0.55810955541668272</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45">
-            <v>533</v>
-          </cell>
-          <cell r="B45">
-            <v>0.59440165575021864</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46">
-            <v>534</v>
-          </cell>
-          <cell r="B46">
-            <v>0.6307788205474284</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47">
-            <v>535</v>
-          </cell>
-          <cell r="B47">
-            <v>0.66697681085847449</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48">
-            <v>536</v>
-          </cell>
-          <cell r="B48">
-            <v>0.70271772286839773</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49">
-            <v>537</v>
-          </cell>
-          <cell r="B49">
-            <v>0.73771330903353483</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50">
-            <v>538</v>
-          </cell>
-          <cell r="B50">
-            <v>0.7716686738745262</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51">
-            <v>539</v>
-          </cell>
-          <cell r="B51">
-            <v>0.80428628283847392</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52">
-            <v>540</v>
-          </cell>
-          <cell r="B52">
-            <v>0.835270211411272</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53">
-            <v>541</v>
-          </cell>
-          <cell r="B53">
-            <v>0.86433055200958619</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54">
-            <v>542</v>
-          </cell>
-          <cell r="B54">
-            <v>0.89118788850418451</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55">
-            <v>543</v>
-          </cell>
-          <cell r="B55">
-            <v>0.91557774286197768</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56">
-            <v>544</v>
-          </cell>
-          <cell r="B56">
-            <v>0.93725489561267772</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57">
-            <v>545</v>
-          </cell>
-          <cell r="B57">
-            <v>0.95599748183309996</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58">
-            <v>546</v>
-          </cell>
-          <cell r="B58">
-            <v>0.97161076718912276</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59">
-            <v>547</v>
-          </cell>
-          <cell r="B59">
-            <v>0.98393051427250833</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60">
-            <v>548</v>
-          </cell>
-          <cell r="B60">
-            <v>0.99282585790381339</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61">
-            <v>549</v>
-          </cell>
-          <cell r="B61">
-            <v>0.99820161902843729</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62">
-            <v>550</v>
-          </cell>
-          <cell r="B62">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63">
-            <v>551</v>
-          </cell>
-          <cell r="B63">
-            <v>0.99820161902843729</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64">
-            <v>552</v>
-          </cell>
-          <cell r="B64">
-            <v>0.99282585790381339</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65">
-            <v>553</v>
-          </cell>
-          <cell r="B65">
-            <v>0.98393051427250833</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66">
-            <v>554</v>
-          </cell>
-          <cell r="B66">
-            <v>0.97161076718912276</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67">
-            <v>555</v>
-          </cell>
-          <cell r="B67">
-            <v>0.95599748183309996</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68">
-            <v>556</v>
-          </cell>
-          <cell r="B68">
-            <v>0.93725489561267772</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69">
-            <v>557</v>
-          </cell>
-          <cell r="B69">
-            <v>0.91557774286197768</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70">
-            <v>558</v>
-          </cell>
-          <cell r="B70">
-            <v>0.89118788850418451</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71">
-            <v>559</v>
-          </cell>
-          <cell r="B71">
-            <v>0.86433055200958619</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="A72">
-            <v>560</v>
-          </cell>
-          <cell r="B72">
-            <v>0.835270211411272</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="A73">
-            <v>561</v>
-          </cell>
-          <cell r="B73">
-            <v>0.80428628283847392</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="A74">
-            <v>562</v>
-          </cell>
-          <cell r="B74">
-            <v>0.7716686738745262</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="A75">
-            <v>563</v>
-          </cell>
-          <cell r="B75">
-            <v>0.73771330903353483</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="A76">
-            <v>564</v>
-          </cell>
-          <cell r="B76">
-            <v>0.70271772286839773</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="A77">
-            <v>565</v>
-          </cell>
-          <cell r="B77">
-            <v>0.66697681085847449</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="A78">
-            <v>566</v>
-          </cell>
-          <cell r="B78">
-            <v>0.6307788205474284</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="A79">
-            <v>567</v>
-          </cell>
-          <cell r="B79">
-            <v>0.59440165575021864</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="A80">
-            <v>568</v>
-          </cell>
-          <cell r="B80">
-            <v>0.55810955541668272</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="A81">
-            <v>569</v>
-          </cell>
-          <cell r="B81">
-            <v>0.52215019635797977</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="A82">
-            <v>570</v>
-          </cell>
-          <cell r="B82">
-            <v>0.48675225595997168</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="A83">
-            <v>571</v>
-          </cell>
-          <cell r="B83">
-            <v>0.45212345767308282</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="A84">
-            <v>572</v>
-          </cell>
-          <cell r="B84">
-            <v>0.41844910891303544</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="A85">
-            <v>573</v>
-          </cell>
-          <cell r="B85">
-            <v>0.38589112843021905</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="A86">
-            <v>574</v>
-          </cell>
-          <cell r="B86">
-            <v>0.35458754856089897</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="A87">
-            <v>575</v>
-          </cell>
-          <cell r="B87">
-            <v>0.32465246735834968</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="A88">
-            <v>576</v>
-          </cell>
-          <cell r="B88">
-            <v>0.29617641665026678</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="A89">
-            <v>577</v>
-          </cell>
-          <cell r="B89">
-            <v>0.26922710474659961</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="A90">
-            <v>578</v>
-          </cell>
-          <cell r="B90">
-            <v>0.2438504869265247</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="A91">
-            <v>579</v>
-          </cell>
-          <cell r="B91">
-            <v>0.22007211299479595</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="A92">
-            <v>580</v>
-          </cell>
-          <cell r="B92">
-            <v>0.19789869908361474</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="A93">
-            <v>581</v>
-          </cell>
-          <cell r="B93">
-            <v>0.17731987039779637</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="A94">
-            <v>582</v>
-          </cell>
-          <cell r="B94">
-            <v>0.1583100226219388</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="A95">
-            <v>583</v>
-          </cell>
-          <cell r="B95">
-            <v>0.14083025205384148</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="A96">
-            <v>584</v>
-          </cell>
-          <cell r="B96">
-            <v>0.12483030799583289</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="A97">
-            <v>585</v>
-          </cell>
-          <cell r="B97">
-            <v>0.11025052530448531</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="A98">
-            <v>586</v>
-          </cell>
-          <cell r="B98">
-            <v>9.7023700041287075E-2</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="A99">
-            <v>587</v>
-          </cell>
-          <cell r="B99">
-            <v>8.5076876655682046E-2</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="A100">
-            <v>588</v>
-          </cell>
-          <cell r="B100">
-            <v>7.4333020850789674E-2</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="A101">
-            <v>589</v>
-          </cell>
-          <cell r="B101">
-            <v>6.4712558031226858E-2</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="A102">
-            <v>590</v>
-          </cell>
-          <cell r="B102">
-            <v>5.6134762834133725E-2</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="A103">
-            <v>591</v>
-          </cell>
-          <cell r="B103">
-            <v>4.8518990547354E-2</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="A104">
-            <v>592</v>
-          </cell>
-          <cell r="B104">
-            <v>4.1785746099929272E-2</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="A105">
-            <v>593</v>
-          </cell>
-          <cell r="B105">
-            <v>3.5857590676413885E-2</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="A106">
-            <v>594</v>
-          </cell>
-          <cell r="B106">
-            <v>3.0659889794007553E-2</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="A107">
-            <v>595</v>
-          </cell>
-          <cell r="B107">
-            <v>2.6121409853918254E-2</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="A108">
-            <v>596</v>
-          </cell>
-          <cell r="B108">
-            <v>2.2174772724855216E-2</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="A109">
-            <v>597</v>
-          </cell>
-          <cell r="B109">
-            <v>1.875677984858105E-2</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="A110">
-            <v>598</v>
-          </cell>
-          <cell r="B110">
-            <v>1.5808618705241848E-2</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="A111">
-            <v>599</v>
-          </cell>
-          <cell r="B111">
-            <v>1.3275965284957046E-2</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="A112">
-            <v>600</v>
-          </cell>
-          <cell r="B112">
-            <v>1.1108996538242306E-2</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="A113">
-            <v>601</v>
-          </cell>
-          <cell r="B113">
-            <v>9.2623266850553852E-3</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="A114">
-            <v>602</v>
-          </cell>
-          <cell r="B114">
-            <v>7.6948808183874848E-3</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="A115">
-            <v>603</v>
-          </cell>
-          <cell r="B115">
-            <v>6.369718512085289E-3</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="A116">
-            <v>604</v>
-          </cell>
-          <cell r="B116">
-            <v>5.2538192009853931E-3</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="A117">
-            <v>605</v>
-          </cell>
-          <cell r="B117">
-            <v>4.3178400076330815E-3</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="A118">
-            <v>606</v>
-          </cell>
-          <cell r="B118">
-            <v>3.5358555015075786E-3</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="A119">
-            <v>607</v>
-          </cell>
-          <cell r="B119">
-            <v>2.8850876448099608E-3</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="A120">
-            <v>608</v>
-          </cell>
-          <cell r="B120">
-            <v>2.3456329471668626E-3</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="A121">
-            <v>609</v>
-          </cell>
-          <cell r="B121">
-            <v>1.9001926561053196E-3</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="A122">
-            <v>610</v>
-          </cell>
-          <cell r="B122">
-            <v>1.5338106793244656E-3</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3376,7 +2373,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3390,7 +2387,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="21.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5703125" style="9" bestFit="1" customWidth="1"/>
@@ -3398,7 +2395,7 @@
     <col min="5" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
@@ -3412,7 +2409,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="9" t="s">
         <v>13</v>
       </c>
@@ -3426,7 +2423,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="9" t="s">
         <v>16</v>
       </c>
@@ -3437,7 +2434,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="9" t="s">
         <v>18</v>
       </c>
@@ -3448,7 +2445,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="9" t="s">
         <v>21</v>
       </c>
@@ -3462,7 +2459,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="9" t="s">
         <v>24</v>
       </c>
@@ -3476,7 +2473,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="9" t="s">
         <v>27</v>
       </c>
@@ -3490,7 +2487,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="9" t="s">
         <v>30</v>
       </c>
@@ -3504,7 +2501,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="9" t="s">
         <v>33</v>
       </c>
@@ -3515,7 +2512,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="9" t="s">
         <v>35</v>
       </c>
@@ -3529,7 +2526,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="9" t="s">
         <v>38</v>
       </c>
@@ -3540,7 +2537,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="9" t="s">
         <v>40</v>
       </c>
@@ -3560,18 +2557,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F15F2C68-A888-450C-AA2B-DBDACB23206B}">
   <dimension ref="A1:L202"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="9" t="s">
         <v>42</v>
       </c>
@@ -3579,7 +2576,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="9">
         <v>490</v>
       </c>
@@ -3594,7 +2591,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="9">
         <v>491</v>
       </c>
@@ -3610,7 +2607,7 @@
         <v>16.666666666666668</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="9">
         <v>492</v>
       </c>
@@ -3619,7 +2616,7 @@
         <v>2.3456329471668626E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="9">
         <v>493</v>
       </c>
@@ -3628,7 +2625,7 @@
         <v>2.8850876448099608E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="9">
         <v>494</v>
       </c>
@@ -3637,7 +2634,7 @@
         <v>3.5358555015075786E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="9">
         <v>495</v>
       </c>
@@ -3646,7 +2643,7 @@
         <v>4.3178400076330815E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="9">
         <v>496</v>
       </c>
@@ -3655,7 +2652,7 @@
         <v>5.2538192009853931E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="9">
         <v>497</v>
       </c>
@@ -3664,7 +2661,7 @@
         <v>6.369718512085289E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="9">
         <v>498</v>
       </c>
@@ -3673,7 +2670,7 @@
         <v>7.6948808183874848E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="9">
         <v>499</v>
       </c>
@@ -3682,7 +2679,7 @@
         <v>9.2623266850553852E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="9">
         <v>500</v>
       </c>
@@ -3691,7 +2688,7 @@
         <v>1.1108996538242306E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="9">
         <v>501</v>
       </c>
@@ -3700,7 +2697,7 @@
         <v>1.3275965284957046E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="9">
         <v>502</v>
       </c>
@@ -3709,7 +2706,7 @@
         <v>1.5808618705241848E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="9">
         <v>503</v>
       </c>
@@ -3718,7 +2715,7 @@
         <v>1.875677984858105E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="9">
         <v>504</v>
       </c>
@@ -3727,7 +2724,7 @@
         <v>2.2174772724855216E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" s="9">
         <v>505</v>
       </c>
@@ -3736,7 +2733,7 @@
         <v>2.6121409853918254E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" s="9">
         <v>506</v>
       </c>
@@ -3745,7 +2742,7 @@
         <v>3.0659889794007553E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" s="9">
         <v>507</v>
       </c>
@@ -3754,7 +2751,7 @@
         <v>3.5857590676413885E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" s="9">
         <v>508</v>
       </c>
@@ -3763,7 +2760,7 @@
         <v>4.1785746099929272E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" s="9">
         <v>509</v>
       </c>
@@ -3772,7 +2769,7 @@
         <v>4.8518990547354E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" s="9">
         <v>510</v>
       </c>
@@ -3781,7 +2778,7 @@
         <v>5.6134762834133725E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23" s="9">
         <v>511</v>
       </c>
@@ -3790,7 +2787,7 @@
         <v>6.4712558031226858E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" s="9">
         <v>512</v>
       </c>
@@ -3799,7 +2796,7 @@
         <v>7.4333020850789674E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" s="9">
         <v>513</v>
       </c>
@@ -3808,7 +2805,7 @@
         <v>8.5076876655682046E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" s="9">
         <v>514</v>
       </c>
@@ -3817,7 +2814,7 @@
         <v>9.7023700041287075E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27" s="9">
         <v>515</v>
       </c>
@@ -3826,7 +2823,7 @@
         <v>0.11025052530448531</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" s="9">
         <v>516</v>
       </c>
@@ -3835,7 +2832,7 @@
         <v>0.12483030799583289</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" s="9">
         <v>517</v>
       </c>
@@ -3844,7 +2841,7 @@
         <v>0.14083025205384148</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" s="9">
         <v>518</v>
       </c>
@@ -3860,7 +2857,7 @@
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="A31" s="9">
         <v>519</v>
       </c>
@@ -3874,7 +2871,7 @@
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
       <c r="A32" s="9">
         <v>520</v>
       </c>
@@ -3888,7 +2885,7 @@
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="9">
         <v>521</v>
       </c>
@@ -3897,7 +2894,7 @@
         <v>0.22007211299479595</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" s="9">
         <v>522</v>
       </c>
@@ -3906,7 +2903,7 @@
         <v>0.2438504869265247</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="9">
         <v>523</v>
       </c>
@@ -3915,7 +2912,7 @@
         <v>0.26922710474659961</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" s="9">
         <v>524</v>
       </c>
@@ -3924,7 +2921,7 @@
         <v>0.29617641665026678</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="9">
         <v>525</v>
       </c>
@@ -3933,7 +2930,7 @@
         <v>0.32465246735834968</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" s="9">
         <v>526</v>
       </c>
@@ -3942,7 +2939,7 @@
         <v>0.35458754856089897</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" s="9">
         <v>527</v>
       </c>
@@ -3951,7 +2948,7 @@
         <v>0.38589112843021905</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" s="9">
         <v>528</v>
       </c>
@@ -3960,7 +2957,7 @@
         <v>0.41844910891303544</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" s="9">
         <v>529</v>
       </c>
@@ -3969,7 +2966,7 @@
         <v>0.45212345767308282</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" s="9">
         <v>530</v>
       </c>
@@ -3978,7 +2975,7 @@
         <v>0.48675225595997168</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" s="9">
         <v>531</v>
       </c>
@@ -3987,7 +2984,7 @@
         <v>0.52215019635797977</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" s="9">
         <v>532</v>
       </c>
@@ -3996,7 +2993,7 @@
         <v>0.55810955541668272</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45" s="9">
         <v>533</v>
       </c>
@@ -4005,7 +3002,7 @@
         <v>0.59440165575021864</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="A46" s="9">
         <v>534</v>
       </c>
@@ -4014,7 +3011,7 @@
         <v>0.6307788205474284</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47" s="9">
         <v>535</v>
       </c>
@@ -4023,7 +3020,7 @@
         <v>0.66697681085847449</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48" s="9">
         <v>536</v>
       </c>
@@ -4032,7 +3029,7 @@
         <v>0.70271772286839773</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49" s="9">
         <v>537</v>
       </c>
@@ -4041,7 +3038,7 @@
         <v>0.73771330903353483</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="A50" s="9">
         <v>538</v>
       </c>
@@ -4050,7 +3047,7 @@
         <v>0.7716686738745262</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="A51" s="9">
         <v>539</v>
       </c>
@@ -4059,7 +3056,7 @@
         <v>0.80428628283847392</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="A52" s="9">
         <v>540</v>
       </c>
@@ -4068,7 +3065,7 @@
         <v>0.835270211411272</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2">
       <c r="A53" s="9">
         <v>541</v>
       </c>
@@ -4077,7 +3074,7 @@
         <v>0.86433055200958619</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="A54" s="9">
         <v>542</v>
       </c>
@@ -4086,7 +3083,7 @@
         <v>0.89118788850418451</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2">
       <c r="A55" s="9">
         <v>543</v>
       </c>
@@ -4095,7 +3092,7 @@
         <v>0.91557774286197768</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2">
       <c r="A56" s="9">
         <v>544</v>
       </c>
@@ -4104,7 +3101,7 @@
         <v>0.93725489561267772</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2">
       <c r="A57" s="9">
         <v>545</v>
       </c>
@@ -4113,7 +3110,7 @@
         <v>0.95599748183309996</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2">
       <c r="A58" s="9">
         <v>546</v>
       </c>
@@ -4122,7 +3119,7 @@
         <v>0.97161076718912276</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2">
       <c r="A59" s="9">
         <v>547</v>
       </c>
@@ -4131,7 +3128,7 @@
         <v>0.98393051427250833</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2">
       <c r="A60" s="9">
         <v>548</v>
       </c>
@@ -4140,7 +3137,7 @@
         <v>0.99282585790381339</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2">
       <c r="A61" s="9">
         <v>549</v>
       </c>
@@ -4149,7 +3146,7 @@
         <v>0.99820161902843729</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2">
       <c r="A62" s="9">
         <v>550</v>
       </c>
@@ -4158,7 +3155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2">
       <c r="A63" s="9">
         <v>551</v>
       </c>
@@ -4167,7 +3164,7 @@
         <v>0.99820161902843729</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2">
       <c r="A64" s="9">
         <v>552</v>
       </c>
@@ -4176,7 +3173,7 @@
         <v>0.99282585790381339</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2">
       <c r="A65" s="9">
         <v>553</v>
       </c>
@@ -4185,7 +3182,7 @@
         <v>0.98393051427250833</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
       <c r="A66" s="9">
         <v>554</v>
       </c>
@@ -4194,7 +3191,7 @@
         <v>0.97161076718912276</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2">
       <c r="A67" s="9">
         <v>555</v>
       </c>
@@ -4203,7 +3200,7 @@
         <v>0.95599748183309996</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2">
       <c r="A68" s="9">
         <v>556</v>
       </c>
@@ -4212,7 +3209,7 @@
         <v>0.93725489561267772</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2">
       <c r="A69" s="9">
         <v>557</v>
       </c>
@@ -4221,7 +3218,7 @@
         <v>0.91557774286197768</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2">
       <c r="A70" s="9">
         <v>558</v>
       </c>
@@ -4230,7 +3227,7 @@
         <v>0.89118788850418451</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2">
       <c r="A71" s="9">
         <v>559</v>
       </c>
@@ -4239,7 +3236,7 @@
         <v>0.86433055200958619</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2">
       <c r="A72" s="9">
         <v>560</v>
       </c>
@@ -4248,7 +3245,7 @@
         <v>0.835270211411272</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2">
       <c r="A73" s="9">
         <v>561</v>
       </c>
@@ -4257,7 +3254,7 @@
         <v>0.80428628283847392</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2">
       <c r="A74" s="9">
         <v>562</v>
       </c>
@@ -4266,7 +3263,7 @@
         <v>0.7716686738745262</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2">
       <c r="A75" s="9">
         <v>563</v>
       </c>
@@ -4275,7 +3272,7 @@
         <v>0.73771330903353483</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2">
       <c r="A76" s="9">
         <v>564</v>
       </c>
@@ -4284,7 +3281,7 @@
         <v>0.70271772286839773</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2">
       <c r="A77" s="9">
         <v>565</v>
       </c>
@@ -4293,7 +3290,7 @@
         <v>0.66697681085847449</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2">
       <c r="A78" s="9">
         <v>566</v>
       </c>
@@ -4302,7 +3299,7 @@
         <v>0.6307788205474284</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2">
       <c r="A79" s="9">
         <v>567</v>
       </c>
@@ -4311,7 +3308,7 @@
         <v>0.59440165575021864</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2">
       <c r="A80" s="9">
         <v>568</v>
       </c>
@@ -4320,7 +3317,7 @@
         <v>0.55810955541668272</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2">
       <c r="A81" s="9">
         <v>569</v>
       </c>
@@ -4329,7 +3326,7 @@
         <v>0.52215019635797977</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2">
       <c r="A82" s="9">
         <v>570</v>
       </c>
@@ -4338,7 +3335,7 @@
         <v>0.48675225595997168</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2">
       <c r="A83" s="9">
         <v>571</v>
       </c>
@@ -4347,7 +3344,7 @@
         <v>0.45212345767308282</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2">
       <c r="A84" s="9">
         <v>572</v>
       </c>
@@ -4356,7 +3353,7 @@
         <v>0.41844910891303544</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2">
       <c r="A85" s="9">
         <v>573</v>
       </c>
@@ -4365,7 +3362,7 @@
         <v>0.38589112843021905</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2">
       <c r="A86" s="9">
         <v>574</v>
       </c>
@@ -4374,7 +3371,7 @@
         <v>0.35458754856089897</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2">
       <c r="A87" s="9">
         <v>575</v>
       </c>
@@ -4383,7 +3380,7 @@
         <v>0.32465246735834968</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2">
       <c r="A88" s="9">
         <v>576</v>
       </c>
@@ -4392,7 +3389,7 @@
         <v>0.29617641665026678</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2">
       <c r="A89" s="9">
         <v>577</v>
       </c>
@@ -4401,7 +3398,7 @@
         <v>0.26922710474659961</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2">
       <c r="A90" s="9">
         <v>578</v>
       </c>
@@ -4410,7 +3407,7 @@
         <v>0.2438504869265247</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2">
       <c r="A91" s="9">
         <v>579</v>
       </c>
@@ -4419,7 +3416,7 @@
         <v>0.22007211299479595</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2">
       <c r="A92" s="9">
         <v>580</v>
       </c>
@@ -4428,7 +3425,7 @@
         <v>0.19789869908361474</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2">
       <c r="A93" s="9">
         <v>581</v>
       </c>
@@ -4437,7 +3434,7 @@
         <v>0.17731987039779637</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2">
       <c r="A94" s="9">
         <v>582</v>
       </c>
@@ -4446,7 +3443,7 @@
         <v>0.1583100226219388</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2">
       <c r="A95" s="9">
         <v>583</v>
       </c>
@@ -4455,7 +3452,7 @@
         <v>0.14083025205384148</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2">
       <c r="A96" s="9">
         <v>584</v>
       </c>
@@ -4464,7 +3461,7 @@
         <v>0.12483030799583289</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2">
       <c r="A97" s="9">
         <v>585</v>
       </c>
@@ -4473,7 +3470,7 @@
         <v>0.11025052530448531</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2">
       <c r="A98" s="9">
         <v>586</v>
       </c>
@@ -4482,7 +3479,7 @@
         <v>9.7023700041287075E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2">
       <c r="A99" s="9">
         <v>587</v>
       </c>
@@ -4491,7 +3488,7 @@
         <v>8.5076876655682046E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2">
       <c r="A100" s="9">
         <v>588</v>
       </c>
@@ -4500,7 +3497,7 @@
         <v>7.4333020850789674E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2">
       <c r="A101" s="9">
         <v>589</v>
       </c>
@@ -4509,7 +3506,7 @@
         <v>6.4712558031226858E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2">
       <c r="A102" s="9">
         <v>590</v>
       </c>
@@ -4518,7 +3515,7 @@
         <v>5.6134762834133725E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2">
       <c r="A103" s="9">
         <v>591</v>
       </c>
@@ -4527,7 +3524,7 @@
         <v>4.8518990547354E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2">
       <c r="A104" s="9">
         <v>592</v>
       </c>
@@ -4536,7 +3533,7 @@
         <v>4.1785746099929272E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2">
       <c r="A105" s="9">
         <v>593</v>
       </c>
@@ -4545,7 +3542,7 @@
         <v>3.5857590676413885E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2">
       <c r="A106" s="9">
         <v>594</v>
       </c>
@@ -4554,7 +3551,7 @@
         <v>3.0659889794007553E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2">
       <c r="A107" s="9">
         <v>595</v>
       </c>
@@ -4563,7 +3560,7 @@
         <v>2.6121409853918254E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2">
       <c r="A108" s="9">
         <v>596</v>
       </c>
@@ -4572,7 +3569,7 @@
         <v>2.2174772724855216E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2">
       <c r="A109" s="9">
         <v>597</v>
       </c>
@@ -4581,7 +3578,7 @@
         <v>1.875677984858105E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2">
       <c r="A110" s="9">
         <v>598</v>
       </c>
@@ -4590,7 +3587,7 @@
         <v>1.5808618705241848E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2">
       <c r="A111" s="9">
         <v>599</v>
       </c>
@@ -4599,7 +3596,7 @@
         <v>1.3275965284957046E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2">
       <c r="A112" s="9">
         <v>600</v>
       </c>
@@ -4608,7 +3605,7 @@
         <v>1.1108996538242306E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2">
       <c r="A113" s="9">
         <v>601</v>
       </c>
@@ -4617,7 +3614,7 @@
         <v>9.2623266850553852E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2">
       <c r="A114" s="9">
         <v>602</v>
       </c>
@@ -4626,7 +3623,7 @@
         <v>7.6948808183874848E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2">
       <c r="A115" s="9">
         <v>603</v>
       </c>
@@ -4635,7 +3632,7 @@
         <v>6.369718512085289E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2">
       <c r="A116" s="9">
         <v>604</v>
       </c>
@@ -4644,7 +3641,7 @@
         <v>5.2538192009853931E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2">
       <c r="A117" s="9">
         <v>605</v>
       </c>
@@ -4653,7 +3650,7 @@
         <v>4.3178400076330815E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2">
       <c r="A118" s="9">
         <v>606</v>
       </c>
@@ -4662,7 +3659,7 @@
         <v>3.5358555015075786E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2">
       <c r="A119" s="9">
         <v>607</v>
       </c>
@@ -4671,7 +3668,7 @@
         <v>2.8850876448099608E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2">
       <c r="A120" s="9">
         <v>608</v>
       </c>
@@ -4680,7 +3677,7 @@
         <v>2.3456329471668626E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2">
       <c r="A121" s="9">
         <v>609</v>
       </c>
@@ -4689,7 +3686,7 @@
         <v>1.9001926561053196E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2">
       <c r="A122" s="9">
         <v>610</v>
       </c>
@@ -4698,80 +3695,80 @@
         <v>1.5338106793244656E-3</v>
       </c>
     </row>
-    <row r="129" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="187" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="192" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="195" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="197" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="198" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="200" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="202" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="9" customFormat="1"/>
+    <row r="130" s="9" customFormat="1"/>
+    <row r="131" s="9" customFormat="1"/>
+    <row r="132" s="9" customFormat="1"/>
+    <row r="133" s="9" customFormat="1"/>
+    <row r="134" s="9" customFormat="1"/>
+    <row r="135" s="9" customFormat="1"/>
+    <row r="136" s="9" customFormat="1"/>
+    <row r="137" s="9" customFormat="1"/>
+    <row r="138" s="9" customFormat="1"/>
+    <row r="139" s="9" customFormat="1"/>
+    <row r="140" s="9" customFormat="1"/>
+    <row r="141" s="9" customFormat="1"/>
+    <row r="142" s="9" customFormat="1"/>
+    <row r="143" s="9" customFormat="1"/>
+    <row r="144" s="9" customFormat="1"/>
+    <row r="145" s="9" customFormat="1"/>
+    <row r="146" s="9" customFormat="1"/>
+    <row r="147" s="9" customFormat="1"/>
+    <row r="148" s="9" customFormat="1"/>
+    <row r="149" s="9" customFormat="1"/>
+    <row r="150" s="9" customFormat="1"/>
+    <row r="151" s="9" customFormat="1"/>
+    <row r="152" s="9" customFormat="1"/>
+    <row r="153" s="9" customFormat="1"/>
+    <row r="154" s="9" customFormat="1"/>
+    <row r="155" s="9" customFormat="1"/>
+    <row r="156" s="9" customFormat="1"/>
+    <row r="157" s="9" customFormat="1"/>
+    <row r="158" s="9" customFormat="1"/>
+    <row r="159" s="9" customFormat="1"/>
+    <row r="160" s="9" customFormat="1"/>
+    <row r="161" s="9" customFormat="1"/>
+    <row r="162" s="9" customFormat="1"/>
+    <row r="163" s="9" customFormat="1"/>
+    <row r="164" s="9" customFormat="1"/>
+    <row r="165" s="9" customFormat="1"/>
+    <row r="166" s="9" customFormat="1"/>
+    <row r="167" s="9" customFormat="1"/>
+    <row r="168" s="9" customFormat="1"/>
+    <row r="169" s="9" customFormat="1"/>
+    <row r="170" s="9" customFormat="1"/>
+    <row r="171" s="9" customFormat="1"/>
+    <row r="172" s="9" customFormat="1"/>
+    <row r="173" s="9" customFormat="1"/>
+    <row r="174" s="9" customFormat="1"/>
+    <row r="175" s="9" customFormat="1"/>
+    <row r="176" s="9" customFormat="1"/>
+    <row r="177" s="9" customFormat="1"/>
+    <row r="178" s="9" customFormat="1"/>
+    <row r="179" s="9" customFormat="1"/>
+    <row r="180" s="9" customFormat="1"/>
+    <row r="181" s="9" customFormat="1"/>
+    <row r="182" s="9" customFormat="1"/>
+    <row r="183" s="9" customFormat="1"/>
+    <row r="184" s="9" customFormat="1"/>
+    <row r="185" s="9" customFormat="1"/>
+    <row r="186" s="9" customFormat="1"/>
+    <row r="187" s="9" customFormat="1"/>
+    <row r="188" s="9" customFormat="1"/>
+    <row r="189" s="9" customFormat="1"/>
+    <row r="190" s="9" customFormat="1"/>
+    <row r="191" s="9" customFormat="1"/>
+    <row r="192" s="9" customFormat="1"/>
+    <row r="193" s="9" customFormat="1"/>
+    <row r="194" s="9" customFormat="1"/>
+    <row r="195" s="9" customFormat="1"/>
+    <row r="196" s="9" customFormat="1"/>
+    <row r="197" s="9" customFormat="1"/>
+    <row r="198" s="9" customFormat="1"/>
+    <row r="199" s="9" customFormat="1"/>
+    <row r="200" s="9" customFormat="1"/>
+    <row r="201" s="9" customFormat="1"/>
+    <row r="202" s="9" customFormat="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H30:L32"/>
@@ -4788,7 +3785,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
@@ -4796,7 +3793,7 @@
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4810,7 +3807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="2">
         <v>42983.4375</v>
       </c>
@@ -4824,7 +3821,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="2">
         <v>42983.479166666664</v>
       </c>
@@ -4838,7 +3835,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="2">
         <v>42983.520833333336</v>
       </c>
@@ -4852,7 +3849,7 @@
         <v>2.0833333333333335</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="2">
         <v>42983.5625</v>
       </c>
@@ -4866,7 +3863,7 @@
         <v>2.1666666666666665</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="2">
         <v>42983.604166666664</v>
       </c>
@@ -4880,7 +3877,7 @@
         <v>1.9166666666666667</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="2">
         <v>42983.645833333336</v>
       </c>
@@ -4894,7 +3891,7 @@
         <v>1.4166666666666667</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="2">
         <v>42983.6875</v>
       </c>
@@ -4908,7 +3905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="2">
         <v>42983.729166666664</v>
       </c>
@@ -4922,7 +3919,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="2">
         <v>42983.770833333336</v>
       </c>
@@ -4936,7 +3933,7 @@
         <v>2.4166666666666665</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="2">
         <v>42983.8125</v>
       </c>
@@ -4950,7 +3947,7 @@
         <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="2">
         <v>42983.854166666664</v>
       </c>
@@ -4964,7 +3961,7 @@
         <v>1.1666666666666667</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="2">
         <v>42983.895833333336</v>
       </c>
@@ -4978,7 +3975,7 @@
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="2">
         <v>42983.9375</v>
       </c>
@@ -4992,7 +3989,7 @@
         <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="2">
         <v>42983.979166666664</v>
       </c>
@@ -5006,7 +4003,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="2">
         <v>42984.020833333336</v>
       </c>
@@ -5020,7 +4017,7 @@
         <v>1.1666666666666667</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="2">
         <v>42984.0625</v>
       </c>
@@ -5034,7 +4031,7 @@
         <v>1.1666666666666667</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="2">
         <v>42984.104166666664</v>
       </c>
@@ -5048,7 +4045,7 @@
         <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="2">
         <v>42984.145833333336</v>
       </c>
@@ -5062,7 +4059,7 @@
         <v>1.5833333333333333</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="2">
         <v>42984.1875</v>
       </c>
@@ -5076,7 +4073,7 @@
         <v>2.5833333333333335</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="2">
         <v>42984.229166666664</v>
       </c>
@@ -5090,7 +4087,7 @@
         <v>2.8333333333333335</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="2">
         <v>42984.270833333336</v>
       </c>
@@ -5104,7 +4101,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="2">
         <v>42984.3125</v>
       </c>
@@ -5118,7 +4115,7 @@
         <v>3.9166666666666665</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="2">
         <v>42984.354166666664</v>
       </c>
@@ -5132,7 +4129,7 @@
         <v>2.8333333333333335</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="2">
         <v>42984.395833333336</v>
       </c>
@@ -5146,7 +4143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="2">
         <v>42984.4375</v>
       </c>
@@ -5160,7 +4157,7 @@
         <v>1.9166666666666667</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="2">
         <v>42984.479166666664</v>
       </c>
@@ -5174,7 +4171,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="2">
         <v>42984.520833333336</v>
       </c>
@@ -5188,7 +4185,7 @@
         <v>1.8333333333333333</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="2">
         <v>42984.5625</v>
       </c>
@@ -5202,7 +4199,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="2">
         <v>42984.604166666664</v>
       </c>
@@ -5216,7 +4213,7 @@
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="2">
         <v>42984.645833333336</v>
       </c>
@@ -5230,7 +4227,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="2">
         <v>42984.6875</v>
       </c>
@@ -5244,7 +4241,7 @@
         <v>1.0833333333333333</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="2">
         <v>42984.729166666664</v>
       </c>
@@ -5258,7 +4255,7 @@
         <v>1.8333333333333333</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="2">
         <v>42984.770833333336</v>
       </c>
@@ -5272,7 +4269,7 @@
         <v>2.1666666666666665</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="2">
         <v>42984.8125</v>
       </c>
@@ -5286,7 +4283,7 @@
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="2">
         <v>42984.854166666664</v>
       </c>
@@ -5300,7 +4297,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="2">
         <v>42984.895833333336</v>
       </c>
@@ -5314,7 +4311,7 @@
         <v>1.8333333333333333</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="2">
         <v>42984.9375</v>
       </c>
@@ -5328,7 +4325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="2">
         <v>42984.979166666664</v>
       </c>
@@ -5342,7 +4339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="2">
         <v>42985.020833333336</v>
       </c>
@@ -5356,7 +4353,7 @@
         <v>1.0833333333333333</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" s="2">
         <v>42985.0625</v>
       </c>
@@ -5370,7 +4367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" s="2">
         <v>42985.104166666664</v>
       </c>
@@ -5384,7 +4381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" s="2">
         <v>42985.145833333336</v>
       </c>
@@ -5398,7 +4395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" s="2">
         <v>42985.1875</v>
       </c>
@@ -5412,7 +4409,7 @@
         <v>1.1666666666666667</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" s="2">
         <v>42985.229166666664</v>
       </c>
@@ -5426,7 +4423,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" s="2">
         <v>42985.270833333336</v>
       </c>
@@ -5440,7 +4437,7 @@
         <v>1.9166666666666667</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" s="2">
         <v>42985.3125</v>
       </c>
@@ -5454,7 +4451,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" s="2">
         <v>42985.354166666664</v>
       </c>
@@ -5468,7 +4465,7 @@
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" s="2">
         <v>42985.395833333336</v>
       </c>
@@ -5482,7 +4479,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" s="2">
         <v>42985.4375</v>
       </c>
@@ -5496,7 +4493,7 @@
         <v>1.5833333333333333</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" s="2">
         <v>42985.479166666664</v>
       </c>
@@ -5510,7 +4507,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" s="2">
         <v>42985.520833333336</v>
       </c>
@@ -5524,7 +4521,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" s="2">
         <v>42985.5625</v>
       </c>
@@ -5538,7 +4535,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" s="2">
         <v>42985.604166666664</v>
       </c>
@@ -5552,7 +4549,7 @@
         <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" s="2">
         <v>42985.645833333336</v>
       </c>
@@ -5566,7 +4563,7 @@
         <v>1.0833333333333333</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" s="2">
         <v>42985.6875</v>
       </c>
@@ -5580,7 +4577,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" s="2">
         <v>42985.729166666664</v>
       </c>
@@ -5594,7 +4591,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58" s="2">
         <v>42985.770833333336</v>
       </c>
@@ -5608,7 +4605,7 @@
         <v>2.4166666666666665</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59" s="2">
         <v>42985.8125</v>
       </c>
@@ -5622,7 +4619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60" s="2">
         <v>42985.854166666664</v>
       </c>
@@ -5636,7 +4633,7 @@
         <v>5.166666666666667</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61" s="2">
         <v>42985.895833333336</v>
       </c>
@@ -5650,7 +4647,7 @@
         <v>6.583333333333333</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62" s="2">
         <v>42985.9375</v>
       </c>
@@ -5664,7 +4661,7 @@
         <v>7.583333333333333</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63" s="2">
         <v>42985.979166666664</v>
       </c>
@@ -5678,7 +4675,7 @@
         <v>6.583333333333333</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="A64" s="2">
         <v>42986.020833333336</v>
       </c>
@@ -5692,7 +4689,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65" s="2">
         <v>42986.0625</v>
       </c>
@@ -5706,7 +4703,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66" s="2">
         <v>42986.104166666664</v>
       </c>
@@ -5720,7 +4717,7 @@
         <v>3.9166666666666665</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67" s="2">
         <v>42986.145833333336</v>
       </c>
@@ -5734,7 +4731,7 @@
         <v>3.9166666666666665</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68" s="2">
         <v>42986.1875</v>
       </c>
@@ -5748,7 +4745,7 @@
         <v>4.083333333333333</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69" s="2">
         <v>42986.229166666664</v>
       </c>
@@ -5762,7 +4759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70" s="2">
         <v>42986.270833333336</v>
       </c>
@@ -5776,7 +4773,7 @@
         <v>3.0833333333333335</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71" s="2">
         <v>42986.3125</v>
       </c>
@@ -5790,7 +4787,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="A72" s="2">
         <v>42986.354166666664</v>
       </c>
@@ -5804,7 +4801,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="A73" s="2">
         <v>42986.395833333336</v>
       </c>
@@ -5818,7 +4815,7 @@
         <v>1.9166666666666667</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="A74" s="2">
         <v>42986.4375</v>
       </c>
@@ -5832,7 +4829,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="A75" s="2">
         <v>42986.479166666664</v>
       </c>
@@ -5846,7 +4843,7 @@
         <v>1.1666666666666667</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4">
       <c r="A76" s="2">
         <v>42986.520833333336</v>
       </c>
@@ -5860,7 +4857,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4">
       <c r="A77" s="2">
         <v>42986.5625</v>
       </c>
@@ -5874,7 +4871,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4">
       <c r="A78" s="2">
         <v>42986.604166666664</v>
       </c>
@@ -5888,7 +4885,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4">
       <c r="A79" s="2">
         <v>42986.645833333336</v>
       </c>
@@ -5902,7 +4899,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4">
       <c r="A80" s="2">
         <v>42986.6875</v>
       </c>
@@ -5916,7 +4913,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4">
       <c r="A81" s="2">
         <v>42986.729166666664</v>
       </c>
@@ -5930,7 +4927,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4">
       <c r="A82" s="2">
         <v>42986.770833333336</v>
       </c>
@@ -5944,7 +4941,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4">
       <c r="A83" s="2">
         <v>42986.8125</v>
       </c>
@@ -5958,7 +4955,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4">
       <c r="A84" s="2">
         <v>42986.854166666664</v>
       </c>
@@ -5972,7 +4969,7 @@
         <v>3.1666666666666665</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4">
       <c r="A85" s="2">
         <v>42986.895833333336</v>
       </c>
@@ -5986,7 +4983,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4">
       <c r="A86" s="2">
         <v>42986.9375</v>
       </c>
@@ -6000,7 +4997,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4">
       <c r="A87" s="2">
         <v>42986.979166666664</v>
       </c>
@@ -6014,7 +5011,7 @@
         <v>2.5833333333333335</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4">
       <c r="A88" s="2">
         <v>42987.020833333336</v>
       </c>
@@ -6028,7 +5025,7 @@
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4">
       <c r="A89" s="2">
         <v>42987.0625</v>
       </c>
@@ -6042,7 +5039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4">
       <c r="A90" s="2">
         <v>42987.104166666664</v>
       </c>
@@ -6056,7 +5053,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4">
       <c r="A91" s="2">
         <v>42987.145833333336</v>
       </c>
@@ -6070,7 +5067,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4">
       <c r="A92" s="2">
         <v>42987.1875</v>
       </c>
@@ -6084,7 +5081,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4">
       <c r="A93" s="2">
         <v>42987.229166666664</v>
       </c>
@@ -6098,7 +5095,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4">
       <c r="A94" s="2">
         <v>42987.270833333336</v>
       </c>
@@ -6112,7 +5109,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4">
       <c r="A95" s="2">
         <v>42987.3125</v>
       </c>
@@ -6126,7 +5123,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4">
       <c r="A96" s="2">
         <v>42987.354166666664</v>
       </c>
@@ -6140,7 +5137,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4">
       <c r="A97" s="2">
         <v>42987.395833333336</v>
       </c>
@@ -6154,7 +5151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4">
       <c r="A98" s="2">
         <v>42987.4375</v>
       </c>
@@ -6168,7 +5165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4">
       <c r="A99" s="2">
         <v>42987.479166666664</v>
       </c>
@@ -6182,7 +5179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4">
       <c r="A100" s="2">
         <v>42987.520833333336</v>
       </c>
@@ -6196,7 +5193,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4">
       <c r="A101" s="2">
         <v>42987.5625</v>
       </c>
@@ -6210,7 +5207,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4">
       <c r="A102" s="2">
         <v>42987.604166666664</v>
       </c>
@@ -6224,7 +5221,7 @@
         <v>1.8333333333333333</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4">
       <c r="A103" s="2">
         <v>42987.645833333336</v>
       </c>
@@ -6238,7 +5235,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4">
       <c r="A104" s="2">
         <v>42987.6875</v>
       </c>
@@ -6252,7 +5249,7 @@
         <v>2.8333333333333335</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4">
       <c r="A105" s="2">
         <v>42987.729166666664</v>
       </c>
@@ -6266,7 +5263,7 @@
         <v>3.6666666666666665</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4">
       <c r="A106" s="2">
         <v>42987.770833333336</v>
       </c>
@@ -6280,7 +5277,7 @@
         <v>4.083333333333333</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4">
       <c r="A107" s="2">
         <v>42987.8125</v>
       </c>
@@ -6294,7 +5291,7 @@
         <v>5.416666666666667</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4">
       <c r="A108" s="2">
         <v>42987.854166666664</v>
       </c>
@@ -6308,7 +5305,7 @@
         <v>6.083333333333333</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4">
       <c r="A109" s="2">
         <v>42987.895833333336</v>
       </c>
@@ -6322,7 +5319,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4">
       <c r="A110" s="2">
         <v>42987.9375</v>
       </c>
@@ -6336,7 +5333,7 @@
         <v>5.583333333333333</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4">
       <c r="A111" s="2">
         <v>42987.979166666664</v>
       </c>
@@ -6350,7 +5347,7 @@
         <v>5.666666666666667</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4">
       <c r="A112" s="2">
         <v>42988.020833333336</v>
       </c>
@@ -6364,7 +5361,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4">
       <c r="A113" s="2">
         <v>42988.0625</v>
       </c>
@@ -6378,7 +5375,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4">
       <c r="A114" s="2">
         <v>42988.104166666664</v>
       </c>
@@ -6392,7 +5389,7 @@
         <v>5.333333333333333</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4">
       <c r="A115" s="2">
         <v>42988.145833333336</v>
       </c>
@@ -6406,7 +5403,7 @@
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4">
       <c r="A116" s="2">
         <v>42988.1875</v>
       </c>
@@ -6420,7 +5417,7 @@
         <v>12.916666666666666</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4">
       <c r="A117" s="2">
         <v>42988.229166666664</v>
       </c>
@@ -6434,7 +5431,7 @@
         <v>10.916666666666666</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4">
       <c r="A118" s="2">
         <v>42988.270833333336</v>
       </c>
@@ -6448,7 +5445,7 @@
         <v>6.333333333333333</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4">
       <c r="A119" s="2">
         <v>42988.3125</v>
       </c>
@@ -6462,7 +5459,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4">
       <c r="A120" s="2">
         <v>42988.354166666664</v>
       </c>
@@ -6476,7 +5473,7 @@
         <v>5.166666666666667</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4">
       <c r="A121" s="2">
         <v>42988.395833333336</v>
       </c>
@@ -6490,7 +5487,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4">
       <c r="A122" s="2">
         <v>42988.4375</v>
       </c>
@@ -6504,7 +5501,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4">
       <c r="A123" s="2">
         <v>42988.479166666664</v>
       </c>
@@ -6518,7 +5515,7 @@
         <v>5.416666666666667</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4">
       <c r="A124" s="2">
         <v>42988.520833333336</v>
       </c>
@@ -6532,7 +5529,7 @@
         <v>4.583333333333333</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4">
       <c r="A125" s="2">
         <v>42988.5625</v>
       </c>
@@ -6546,7 +5543,7 @@
         <v>5.333333333333333</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4">
       <c r="A126" s="2">
         <v>42988.604166666664</v>
       </c>
@@ -6560,7 +5557,7 @@
         <v>5.666666666666667</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4">
       <c r="A127" s="2">
         <v>42988.645833333336</v>
       </c>
@@ -6574,7 +5571,7 @@
         <v>5.583333333333333</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4">
       <c r="A128" s="2">
         <v>42988.6875</v>
       </c>
@@ -6588,7 +5585,7 @@
         <v>6.916666666666667</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4">
       <c r="A129" s="2">
         <v>42988.729166666664</v>
       </c>
@@ -6602,7 +5599,7 @@
         <v>6.916666666666667</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4">
       <c r="A130" s="2">
         <v>42988.770833333336</v>
       </c>
@@ -6616,7 +5613,7 @@
         <v>6.583333333333333</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4">
       <c r="A131" s="2">
         <v>42988.8125</v>
       </c>
@@ -6630,7 +5627,7 @@
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4">
       <c r="A132" s="2">
         <v>42988.854166666664</v>
       </c>
@@ -6644,7 +5641,7 @@
         <v>7.416666666666667</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4">
       <c r="A133" s="2">
         <v>42988.895833333336</v>
       </c>
@@ -6658,7 +5655,7 @@
         <v>7.666666666666667</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4">
       <c r="A134" s="2">
         <v>42988.9375</v>
       </c>
@@ -6672,7 +5669,7 @@
         <v>6.833333333333333</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4">
       <c r="A135" s="2">
         <v>42988.979166666664</v>
       </c>
@@ -6686,7 +5683,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4">
       <c r="A136" s="2">
         <v>42989.020833333336</v>
       </c>
@@ -6700,7 +5697,7 @@
         <v>5.833333333333333</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4">
       <c r="A137" s="2">
         <v>42989.0625</v>
       </c>
@@ -6714,7 +5711,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4">
       <c r="A138" s="2">
         <v>42989.104166666664</v>
       </c>
@@ -6728,7 +5725,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4">
       <c r="A139" s="2">
         <v>42989.145833333336</v>
       </c>
@@ -6742,7 +5739,7 @@
         <v>6.416666666666667</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4">
       <c r="A140" s="2">
         <v>42989.1875</v>
       </c>
@@ -6756,7 +5753,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4">
       <c r="A141" s="2">
         <v>42989.229166666664</v>
       </c>
@@ -6770,7 +5767,7 @@
         <v>7.416666666666667</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4">
       <c r="A142" s="2">
         <v>42989.270833333336</v>
       </c>
@@ -6784,7 +5781,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4">
       <c r="A143" s="2">
         <v>42989.3125</v>
       </c>
@@ -6798,7 +5795,7 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4">
       <c r="A144" s="2">
         <v>42989.354166666664</v>
       </c>
@@ -6812,7 +5809,7 @@
         <v>10.416666666666666</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4">
       <c r="A145" s="2">
         <v>42989.395833333336</v>
       </c>
@@ -6826,7 +5823,7 @@
         <v>10.583333333333334</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4">
       <c r="A146" s="2">
         <v>42989.4375</v>
       </c>
@@ -6840,7 +5837,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4">
       <c r="A147" s="2">
         <v>42989.479166666664</v>
       </c>
@@ -6854,7 +5851,7 @@
         <v>8.1666666666666661</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4">
       <c r="A148" s="2">
         <v>42989.520833333336</v>
       </c>
@@ -6868,7 +5865,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4">
       <c r="A149" s="2">
         <v>42989.5625</v>
       </c>
@@ -6882,7 +5879,7 @@
         <v>10.25</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4">
       <c r="A150" s="2">
         <v>42989.604166666664</v>
       </c>
@@ -6896,7 +5893,7 @@
         <v>8.0833333333333339</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4">
       <c r="A151" s="2">
         <v>42989.645833333336</v>
       </c>
@@ -6910,7 +5907,7 @@
         <v>7.416666666666667</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4">
       <c r="A152" s="2">
         <v>42989.6875</v>
       </c>
@@ -6924,7 +5921,7 @@
         <v>7.916666666666667</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4">
       <c r="A153" s="2">
         <v>42989.729166666664</v>
       </c>
@@ -6938,7 +5935,7 @@
         <v>8.6666666666666661</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4">
       <c r="A154" s="2">
         <v>42989.770833333336</v>
       </c>
@@ -6952,7 +5949,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4">
       <c r="A155" s="2">
         <v>42989.8125</v>
       </c>
@@ -6966,7 +5963,7 @@
         <v>6.333333333333333</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4">
       <c r="A156" s="2">
         <v>42989.854166666664</v>
       </c>
@@ -6980,7 +5977,7 @@
         <v>6.416666666666667</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4">
       <c r="A157" s="2">
         <v>42989.895833333336</v>
       </c>
@@ -6994,7 +5991,7 @@
         <v>5.833333333333333</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4">
       <c r="A158" s="2">
         <v>42989.9375</v>
       </c>
@@ -7008,7 +6005,7 @@
         <v>6.083333333333333</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4">
       <c r="A159" s="2">
         <v>42989.979166666664</v>
       </c>
@@ -7022,7 +6019,7 @@
         <v>5.916666666666667</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4">
       <c r="A160" s="2">
         <v>42990.020833333336</v>
       </c>
@@ -7036,7 +6033,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4">
       <c r="A161" s="2">
         <v>42990.0625</v>
       </c>
@@ -7050,7 +6047,7 @@
         <v>7.083333333333333</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4">
       <c r="A162" s="2">
         <v>42990.104166666664</v>
       </c>
@@ -7064,7 +6061,7 @@
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4">
       <c r="A163" s="2">
         <v>42990.145833333336</v>
       </c>
@@ -7078,7 +6075,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4">
       <c r="A164" s="2">
         <v>42990.1875</v>
       </c>
@@ -7092,7 +6089,7 @@
         <v>7.333333333333333</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4">
       <c r="A165" s="2">
         <v>42990.229166666664</v>
       </c>
@@ -7106,7 +6103,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4">
       <c r="A166" s="2">
         <v>42990.270833333336</v>
       </c>
@@ -7120,7 +6117,7 @@
         <v>8.8333333333333339</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4">
       <c r="A167" s="2">
         <v>42990.3125</v>
       </c>
@@ -7134,7 +6131,7 @@
         <v>12.083333333333334</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4">
       <c r="A168" s="2">
         <v>42990.354166666664</v>
       </c>
@@ -7148,7 +6145,7 @@
         <v>9.5833333333333339</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4">
       <c r="A169" s="2">
         <v>42990.395833333336</v>
       </c>
@@ -7162,7 +6159,7 @@
         <v>9.4166666666666661</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4">
       <c r="A170" s="2">
         <v>42990.4375</v>
       </c>
@@ -7176,7 +6173,7 @@
         <v>9.1666666666666661</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4">
       <c r="A171" s="2">
         <v>42990.479166666664</v>
       </c>
@@ -7190,7 +6187,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4">
       <c r="A172" s="2">
         <v>42990.520833333336</v>
       </c>
@@ -7204,7 +6201,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4">
       <c r="A173" s="2">
         <v>42990.5625</v>
       </c>
@@ -7218,7 +6215,7 @@
         <v>7.833333333333333</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4">
       <c r="A174" s="2">
         <v>42990.604166666664</v>
       </c>
@@ -7232,7 +6229,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4">
       <c r="A175" s="2">
         <v>42990.645833333336</v>
       </c>
@@ -7246,7 +6243,7 @@
         <v>6.916666666666667</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4">
       <c r="A176" s="2">
         <v>42990.6875</v>
       </c>
@@ -7260,7 +6257,7 @@
         <v>7.333333333333333</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4">
       <c r="A177" s="2">
         <v>42990.729166666664</v>
       </c>
@@ -7274,7 +6271,7 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4">
       <c r="A178" s="2">
         <v>42990.770833333336</v>
       </c>
@@ -7288,7 +6285,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4">
       <c r="A179" s="2">
         <v>42990.8125</v>
       </c>
@@ -7302,7 +6299,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4">
       <c r="A180" s="2">
         <v>42990.854166666664</v>
       </c>
@@ -7316,7 +6313,7 @@
         <v>7.666666666666667</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4">
       <c r="A181" s="2">
         <v>42990.895833333336</v>
       </c>
@@ -7330,7 +6327,7 @@
         <v>7.916666666666667</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4">
       <c r="A182" s="2">
         <v>42990.9375</v>
       </c>
@@ -7344,7 +6341,7 @@
         <v>8.4166666666666661</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4">
       <c r="A183" s="2">
         <v>42990.979166666664</v>
       </c>
@@ -7358,7 +6355,7 @@
         <v>6.416666666666667</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4">
       <c r="A184" s="2">
         <v>42991.020833333336</v>
       </c>
@@ -7372,7 +6369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4">
       <c r="A185" s="2">
         <v>42991.0625</v>
       </c>
@@ -7386,7 +6383,7 @@
         <v>4.416666666666667</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4">
       <c r="A186" s="2">
         <v>42991.104166666664</v>
       </c>
@@ -7400,7 +6397,7 @@
         <v>4.416666666666667</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4">
       <c r="A187" s="2">
         <v>42991.145833333336</v>
       </c>
@@ -7414,7 +6411,7 @@
         <v>4.583333333333333</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4">
       <c r="A188" s="2">
         <v>42991.1875</v>
       </c>
@@ -7428,7 +6425,7 @@
         <v>5.416666666666667</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4">
       <c r="A189" s="2">
         <v>42991.229166666664</v>
       </c>
@@ -7442,7 +6439,7 @@
         <v>5.083333333333333</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4">
       <c r="A190" s="2">
         <v>42991.270833333336</v>
       </c>
@@ -7456,7 +6453,7 @@
         <v>95.916666666666671</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4">
       <c r="A191" s="2">
         <v>42991.3125</v>
       </c>
@@ -7470,7 +6467,7 @@
         <v>136.33333333333334</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4">
       <c r="A192" s="2">
         <v>42991.354166666664</v>
       </c>
@@ -7484,7 +6481,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4">
       <c r="A193" s="2">
         <v>42991.395833333336</v>
       </c>
@@ -7498,7 +6495,7 @@
         <v>27.166666666666668</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4">
       <c r="A194" s="2">
         <v>42991.4375</v>
       </c>
@@ -7512,7 +6509,7 @@
         <v>7.333333333333333</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4">
       <c r="A195" s="2">
         <v>42991.479166666664</v>
       </c>
@@ -7526,7 +6523,7 @@
         <v>5.833333333333333</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4">
       <c r="A196" s="2">
         <v>42991.520833333336</v>
       </c>
@@ -7540,7 +6537,7 @@
         <v>6.416666666666667</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4">
       <c r="A197" s="2">
         <v>42991.5625</v>
       </c>
@@ -7554,7 +6551,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4">
       <c r="A198" s="2">
         <v>42991.604166666664</v>
       </c>
@@ -7568,7 +6565,7 @@
         <v>8.4166666666666661</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4">
       <c r="A199" s="2">
         <v>42991.645833333336</v>
       </c>
@@ -7582,7 +6579,7 @@
         <v>8.3333333333333339</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4">
       <c r="A200" s="2">
         <v>42991.6875</v>
       </c>
@@ -7596,7 +6593,7 @@
         <v>10.833333333333334</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4">
       <c r="A201" s="2">
         <v>42991.729166666664</v>
       </c>
@@ -7623,13 +6620,13 @@
       <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="6" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7649,7 +6646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="4">
         <v>42983.4375</v>
       </c>
@@ -7669,7 +6666,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="4">
         <v>42983.479166666664</v>
       </c>
@@ -7689,7 +6686,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="4">
         <v>42983.520833333336</v>
       </c>
@@ -7709,7 +6706,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="4">
         <v>42983.5625</v>
       </c>
@@ -7729,7 +6726,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="4">
         <v>42983.604166666664</v>
       </c>
@@ -7749,7 +6746,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="4">
         <v>42983.645833333336</v>
       </c>
@@ -7769,7 +6766,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="4">
         <v>42983.6875</v>
       </c>
@@ -7789,7 +6786,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="4">
         <v>42983.729166666664</v>
       </c>
@@ -7809,7 +6806,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="4">
         <v>42983.770833333336</v>
       </c>
@@ -7829,7 +6826,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="4">
         <v>42983.8125</v>
       </c>
@@ -7849,7 +6846,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="4">
         <v>42983.854166666664</v>
       </c>
@@ -7869,7 +6866,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="4">
         <v>42983.895833333336</v>
       </c>
@@ -7889,7 +6886,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="4">
         <v>42983.9375</v>
       </c>
@@ -7909,7 +6906,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="4">
         <v>42983.979166666664</v>
       </c>
@@ -7929,7 +6926,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="4">
         <v>42984.020833333336</v>
       </c>
@@ -7949,7 +6946,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="4">
         <v>42984.0625</v>
       </c>
@@ -7969,7 +6966,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="4">
         <v>42984.104166666664</v>
       </c>
@@ -7989,7 +6986,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="4">
         <v>42984.145833333336</v>
       </c>
@@ -8009,7 +7006,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="4">
         <v>42984.1875</v>
       </c>
@@ -8029,7 +7026,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="4">
         <v>42984.229166666664</v>
       </c>
@@ -8049,7 +7046,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="4">
         <v>42984.270833333336</v>
       </c>
@@ -8069,7 +7066,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="4">
         <v>42984.3125</v>
       </c>
@@ -8089,7 +7086,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="4">
         <v>42984.354166666664</v>
       </c>
@@ -8109,7 +7106,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="4">
         <v>42984.395833333336</v>
       </c>
@@ -8129,7 +7126,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="4">
         <v>42984.4375</v>
       </c>
@@ -8149,7 +7146,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="4">
         <v>42984.479166666664</v>
       </c>
@@ -8169,7 +7166,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="4">
         <v>42984.520833333336</v>
       </c>
@@ -8189,7 +7186,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="4">
         <v>42984.5625</v>
       </c>
@@ -8209,7 +7206,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="4">
         <v>42984.604166666664</v>
       </c>
@@ -8229,7 +7226,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="4">
         <v>42984.645833333336</v>
       </c>
@@ -8249,7 +7246,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="4">
         <v>42984.6875</v>
       </c>
@@ -8269,7 +7266,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="4">
         <v>42984.729166666664</v>
       </c>
@@ -8289,7 +7286,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="4">
         <v>42984.770833333336</v>
       </c>
@@ -8309,7 +7306,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="4">
         <v>42984.8125</v>
       </c>
@@ -8329,7 +7326,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="4">
         <v>42984.854166666664</v>
       </c>
@@ -8349,7 +7346,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="4">
         <v>42984.895833333336</v>
       </c>
@@ -8369,7 +7366,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="4">
         <v>42984.9375</v>
       </c>
@@ -8389,7 +7386,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" s="4">
         <v>42984.979166666664</v>
       </c>
@@ -8409,7 +7406,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="4">
         <v>42985.020833333336</v>
       </c>
@@ -8429,7 +7426,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" s="4">
         <v>42985.0625</v>
       </c>
@@ -8449,7 +7446,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" s="4">
         <v>42985.104166666664</v>
       </c>
@@ -8469,7 +7466,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" s="4">
         <v>42985.145833333336</v>
       </c>
@@ -8489,7 +7486,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" s="4">
         <v>42985.1875</v>
       </c>
@@ -8509,7 +7506,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45" s="4">
         <v>42985.229166666664</v>
       </c>
@@ -8529,7 +7526,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46" s="4">
         <v>42985.270833333336</v>
       </c>
@@ -8549,7 +7546,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47" s="4">
         <v>42985.3125</v>
       </c>
@@ -8569,7 +7566,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48" s="4">
         <v>42985.354166666664</v>
       </c>
@@ -8589,7 +7586,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49" s="4">
         <v>42985.395833333336</v>
       </c>
@@ -8609,7 +7606,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50" s="4">
         <v>42985.4375</v>
       </c>
@@ -8629,7 +7626,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51" s="4">
         <v>42985.479166666664</v>
       </c>
@@ -8649,7 +7646,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52" s="4">
         <v>42985.520833333336</v>
       </c>
@@ -8669,7 +7666,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53" s="4">
         <v>42985.5625</v>
       </c>
@@ -8689,7 +7686,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54" s="4">
         <v>42985.604166666664</v>
       </c>
@@ -8709,7 +7706,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55" s="4">
         <v>42985.645833333336</v>
       </c>
@@ -8729,7 +7726,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56" s="4">
         <v>42985.6875</v>
       </c>
@@ -8749,7 +7746,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="A57" s="4">
         <v>42985.729166666664</v>
       </c>
@@ -8769,7 +7766,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58" s="4">
         <v>42985.770833333336</v>
       </c>
@@ -8789,7 +7786,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59" s="4">
         <v>42985.8125</v>
       </c>
@@ -8809,7 +7806,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60" s="4">
         <v>42985.854166666664</v>
       </c>
@@ -8829,7 +7826,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="A61" s="4">
         <v>42985.895833333336</v>
       </c>
@@ -8849,7 +7846,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62" s="4">
         <v>42985.9375</v>
       </c>
@@ -8869,7 +7866,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="A63" s="4">
         <v>42985.979166666664</v>
       </c>
@@ -8889,7 +7886,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="A64" s="4">
         <v>42986.020833333336</v>
       </c>
@@ -8909,7 +7906,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="A65" s="4">
         <v>42986.0625</v>
       </c>
@@ -8929,7 +7926,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6">
       <c r="A66" s="4">
         <v>42986.104166666664</v>
       </c>
@@ -8949,7 +7946,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
       <c r="A67" s="4">
         <v>42986.145833333336</v>
       </c>
@@ -8969,7 +7966,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6">
       <c r="A68" s="4">
         <v>42986.1875</v>
       </c>
@@ -8989,7 +7986,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6">
       <c r="A69" s="4">
         <v>42986.229166666664</v>
       </c>
@@ -9009,7 +8006,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6">
       <c r="A70" s="4">
         <v>42986.270833333336</v>
       </c>
@@ -9029,7 +8026,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6">
       <c r="A71" s="4">
         <v>42986.3125</v>
       </c>
@@ -9049,7 +8046,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6">
       <c r="A72" s="4">
         <v>42986.354166666664</v>
       </c>
@@ -9069,7 +8066,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6">
       <c r="A73" s="4">
         <v>42986.395833333336</v>
       </c>
@@ -9089,7 +8086,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6">
       <c r="A74" s="4">
         <v>42986.4375</v>
       </c>
@@ -9109,7 +8106,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6">
       <c r="A75" s="4">
         <v>42986.479166666664</v>
       </c>
@@ -9129,7 +8126,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6">
       <c r="A76" s="4">
         <v>42986.520833333336</v>
       </c>
@@ -9149,7 +8146,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6">
       <c r="A77" s="4">
         <v>42986.5625</v>
       </c>
@@ -9169,7 +8166,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6">
       <c r="A78" s="4">
         <v>42986.604166666664</v>
       </c>
@@ -9189,7 +8186,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6">
       <c r="A79" s="4">
         <v>42986.645833333336</v>
       </c>
@@ -9209,7 +8206,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6">
       <c r="A80" s="4">
         <v>42986.6875</v>
       </c>
@@ -9229,7 +8226,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6">
       <c r="A81" s="4">
         <v>42986.729166666664</v>
       </c>
@@ -9249,7 +8246,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6">
       <c r="A82" s="4">
         <v>42986.770833333336</v>
       </c>
@@ -9269,7 +8266,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6">
       <c r="A83" s="4">
         <v>42986.8125</v>
       </c>
@@ -9289,7 +8286,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6">
       <c r="A84" s="4">
         <v>42986.854166666664</v>
       </c>
@@ -9309,7 +8306,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6">
       <c r="A85" s="4">
         <v>42986.895833333336</v>
       </c>
@@ -9329,7 +8326,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6">
       <c r="A86" s="4">
         <v>42986.9375</v>
       </c>
@@ -9349,7 +8346,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6">
       <c r="A87" s="4">
         <v>42986.979166666664</v>
       </c>
@@ -9369,7 +8366,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6">
       <c r="A88" s="4">
         <v>42987.020833333336</v>
       </c>
@@ -9389,7 +8386,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6">
       <c r="A89" s="4">
         <v>42987.0625</v>
       </c>
@@ -9409,7 +8406,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6">
       <c r="A90" s="4">
         <v>42987.104166666664</v>
       </c>
@@ -9429,7 +8426,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6">
       <c r="A91" s="4">
         <v>42987.145833333336</v>
       </c>
@@ -9449,7 +8446,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6">
       <c r="A92" s="4">
         <v>42987.1875</v>
       </c>
@@ -9469,7 +8466,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6">
       <c r="A93" s="4">
         <v>42987.229166666664</v>
       </c>
@@ -9489,7 +8486,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6">
       <c r="A94" s="4">
         <v>42987.270833333336</v>
       </c>
@@ -9509,7 +8506,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6">
       <c r="A95" s="4">
         <v>42987.3125</v>
       </c>
@@ -9529,7 +8526,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6">
       <c r="A96" s="4">
         <v>42987.354166666664</v>
       </c>
@@ -9549,7 +8546,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6">
       <c r="A97" s="4">
         <v>42987.395833333336</v>
       </c>
@@ -9569,7 +8566,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6">
       <c r="A98" s="4">
         <v>42987.4375</v>
       </c>
@@ -9589,7 +8586,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6">
       <c r="A99" s="4">
         <v>42987.479166666664</v>
       </c>
@@ -9609,7 +8606,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6">
       <c r="A100" s="4">
         <v>42987.520833333336</v>
       </c>
@@ -9629,7 +8626,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6">
       <c r="A101" s="4">
         <v>42987.5625</v>
       </c>
@@ -9649,7 +8646,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6">
       <c r="A102" s="4">
         <v>42987.604166666664</v>
       </c>
@@ -9669,7 +8666,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6">
       <c r="A103" s="4">
         <v>42987.645833333336</v>
       </c>
@@ -9689,7 +8686,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6">
       <c r="A104" s="4">
         <v>42987.6875</v>
       </c>
@@ -9709,7 +8706,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6">
       <c r="A105" s="4">
         <v>42987.729166666664</v>
       </c>
@@ -9729,7 +8726,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6">
       <c r="A106" s="4">
         <v>42987.770833333336</v>
       </c>
@@ -9749,7 +8746,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6">
       <c r="A107" s="4">
         <v>42987.8125</v>
       </c>
@@ -9769,7 +8766,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6">
       <c r="A108" s="4">
         <v>42987.854166666664</v>
       </c>
@@ -9789,7 +8786,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6">
       <c r="A109" s="4">
         <v>42987.895833333336</v>
       </c>
@@ -9809,7 +8806,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6">
       <c r="A110" s="4">
         <v>42987.9375</v>
       </c>
@@ -9829,7 +8826,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6">
       <c r="A111" s="4">
         <v>42987.979166666664</v>
       </c>
@@ -9849,7 +8846,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6">
       <c r="A112" s="4">
         <v>42988.020833333336</v>
       </c>
@@ -9869,7 +8866,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6">
       <c r="A113" s="4">
         <v>42988.0625</v>
       </c>
@@ -9889,7 +8886,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6">
       <c r="A114" s="4">
         <v>42988.104166666664</v>
       </c>
@@ -9909,7 +8906,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6">
       <c r="A115" s="4">
         <v>42988.145833333336</v>
       </c>
@@ -9929,7 +8926,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6">
       <c r="A116" s="4">
         <v>42988.1875</v>
       </c>
@@ -9949,7 +8946,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6">
       <c r="A117" s="4">
         <v>42988.229166666664</v>
       </c>
@@ -9969,7 +8966,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6">
       <c r="A118" s="4">
         <v>42988.270833333336</v>
       </c>
@@ -9989,7 +8986,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6">
       <c r="A119" s="4">
         <v>42988.3125</v>
       </c>
@@ -10009,7 +9006,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6">
       <c r="A120" s="4">
         <v>42988.354166666664</v>
       </c>
@@ -10029,7 +9026,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6">
       <c r="A121" s="4">
         <v>42988.395833333336</v>
       </c>
@@ -10049,7 +9046,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6">
       <c r="A122" s="4">
         <v>42988.4375</v>
       </c>
@@ -10069,7 +9066,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6">
       <c r="A123" s="4">
         <v>42988.479166666664</v>
       </c>
@@ -10089,7 +9086,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6">
       <c r="A124" s="4">
         <v>42988.520833333336</v>
       </c>
@@ -10109,7 +9106,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6">
       <c r="A125" s="4">
         <v>42988.5625</v>
       </c>
@@ -10129,7 +9126,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6">
       <c r="A126" s="4">
         <v>42988.604166666664</v>
       </c>
@@ -10149,7 +9146,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6">
       <c r="A127" s="4">
         <v>42988.645833333336</v>
       </c>
@@ -10169,7 +9166,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6">
       <c r="A128" s="4">
         <v>42988.6875</v>
       </c>
@@ -10189,7 +9186,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6">
       <c r="A129" s="4">
         <v>42988.729166666664</v>
       </c>
@@ -10209,7 +9206,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6">
       <c r="A130" s="4">
         <v>42988.770833333336</v>
       </c>
@@ -10229,7 +9226,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6">
       <c r="A131" s="4">
         <v>42988.8125</v>
       </c>
@@ -10249,7 +9246,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6">
       <c r="A132" s="4">
         <v>42988.854166666664</v>
       </c>
@@ -10269,7 +9266,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6">
       <c r="A133" s="4">
         <v>42988.895833333336</v>
       </c>
@@ -10289,7 +9286,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6">
       <c r="A134" s="4">
         <v>42988.9375</v>
       </c>
@@ -10309,7 +9306,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6">
       <c r="A135" s="4">
         <v>42988.979166666664</v>
       </c>
@@ -10329,7 +9326,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6">
       <c r="A136" s="4">
         <v>42989.020833333336</v>
       </c>
@@ -10349,7 +9346,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6">
       <c r="A137" s="4">
         <v>42989.0625</v>
       </c>
@@ -10369,7 +9366,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6">
       <c r="A138" s="4">
         <v>42989.104166666664</v>
       </c>
@@ -10389,7 +9386,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6">
       <c r="A139" s="4">
         <v>42989.145833333336</v>
       </c>
@@ -10409,7 +9406,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6">
       <c r="A140" s="4">
         <v>42989.1875</v>
       </c>
@@ -10429,7 +9426,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6">
       <c r="A141" s="4">
         <v>42989.229166666664</v>
       </c>
@@ -10449,7 +9446,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6">
       <c r="A142" s="4">
         <v>42989.270833333336</v>
       </c>
@@ -10469,7 +9466,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6">
       <c r="A143" s="4">
         <v>42989.3125</v>
       </c>
@@ -10489,7 +9486,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6">
       <c r="A144" s="4">
         <v>42989.354166666664</v>
       </c>
@@ -10509,7 +9506,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6">
       <c r="A145" s="4">
         <v>42989.395833333336</v>
       </c>
@@ -10529,7 +9526,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6">
       <c r="A146" s="4">
         <v>42989.4375</v>
       </c>
@@ -10549,7 +9546,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6">
       <c r="A147" s="4">
         <v>42989.479166666664</v>
       </c>
@@ -10569,7 +9566,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6">
       <c r="A148" s="4">
         <v>42989.520833333336</v>
       </c>
@@ -10589,7 +9586,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6">
       <c r="A149" s="4">
         <v>42989.5625</v>
       </c>
@@ -10609,7 +9606,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6">
       <c r="A150" s="4">
         <v>42989.604166666664</v>
       </c>
@@ -10629,7 +9626,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6">
       <c r="A151" s="4">
         <v>42989.645833333336</v>
       </c>
@@ -10649,7 +9646,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6">
       <c r="A152" s="4">
         <v>42989.6875</v>
       </c>
@@ -10669,7 +9666,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6">
       <c r="A153" s="4">
         <v>42989.729166666664</v>
       </c>
@@ -10689,7 +9686,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6">
       <c r="A154" s="4">
         <v>42989.770833333336</v>
       </c>
@@ -10709,7 +9706,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6">
       <c r="A155" s="4">
         <v>42989.8125</v>
       </c>
@@ -10729,7 +9726,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6">
       <c r="A156" s="4">
         <v>42989.854166666664</v>
       </c>
@@ -10749,7 +9746,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6">
       <c r="A157" s="4">
         <v>42989.895833333336</v>
       </c>
@@ -10769,7 +9766,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6">
       <c r="A158" s="4">
         <v>42989.9375</v>
       </c>
@@ -10789,7 +9786,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6">
       <c r="A159" s="4">
         <v>42989.979166666664</v>
       </c>
@@ -10809,7 +9806,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6">
       <c r="A160" s="4">
         <v>42990.020833333336</v>
       </c>
@@ -10829,7 +9826,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6">
       <c r="A161" s="4">
         <v>42990.0625</v>
       </c>
@@ -10849,7 +9846,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6">
       <c r="A162" s="4">
         <v>42990.104166666664</v>
       </c>
@@ -10869,7 +9866,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6">
       <c r="A163" s="4">
         <v>42990.145833333336</v>
       </c>
@@ -10889,7 +9886,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6">
       <c r="A164" s="4">
         <v>42990.1875</v>
       </c>
@@ -10909,7 +9906,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6">
       <c r="A165" s="4">
         <v>42990.229166666664</v>
       </c>
@@ -10929,7 +9926,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6">
       <c r="A166" s="4">
         <v>42990.270833333336</v>
       </c>
@@ -10949,7 +9946,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6">
       <c r="A167" s="4">
         <v>42990.3125</v>
       </c>
@@ -10969,7 +9966,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6">
       <c r="A168" s="4">
         <v>42990.354166666664</v>
       </c>
@@ -10989,7 +9986,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6">
       <c r="A169" s="4">
         <v>42990.395833333336</v>
       </c>
@@ -11009,7 +10006,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6">
       <c r="A170" s="4">
         <v>42990.4375</v>
       </c>
@@ -11029,7 +10026,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6">
       <c r="A171" s="4">
         <v>42990.479166666664</v>
       </c>
@@ -11049,7 +10046,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6">
       <c r="A172" s="4">
         <v>42990.520833333336</v>
       </c>
@@ -11069,7 +10066,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6">
       <c r="A173" s="4">
         <v>42990.5625</v>
       </c>
@@ -11089,7 +10086,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6">
       <c r="A174" s="4">
         <v>42990.604166666664</v>
       </c>
@@ -11109,7 +10106,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6">
       <c r="A175" s="4">
         <v>42990.645833333336</v>
       </c>
@@ -11129,7 +10126,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6">
       <c r="A176" s="4">
         <v>42990.6875</v>
       </c>
@@ -11149,7 +10146,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6">
       <c r="A177" s="4">
         <v>42990.729166666664</v>
       </c>
@@ -11169,7 +10166,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6">
       <c r="A178" s="4">
         <v>42990.770833333336</v>
       </c>
@@ -11189,7 +10186,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6">
       <c r="A179" s="4">
         <v>42990.8125</v>
       </c>
@@ -11209,7 +10206,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6">
       <c r="A180" s="4">
         <v>42990.854166666664</v>
       </c>
@@ -11229,7 +10226,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6">
       <c r="A181" s="4">
         <v>42990.895833333336</v>
       </c>
@@ -11249,7 +10246,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6">
       <c r="A182" s="4">
         <v>42990.9375</v>
       </c>
@@ -11269,7 +10266,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6">
       <c r="A183" s="4">
         <v>42990.979166666664</v>
       </c>
@@ -11289,7 +10286,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6">
       <c r="A184" s="4">
         <v>42991.020833333336</v>
       </c>
@@ -11309,7 +10306,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6">
       <c r="A185" s="4">
         <v>42991.0625</v>
       </c>
@@ -11329,7 +10326,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6">
       <c r="A186" s="4">
         <v>42991.104166666664</v>
       </c>
@@ -11349,7 +10346,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6">
       <c r="A187" s="4">
         <v>42991.145833333336</v>
       </c>
@@ -11369,7 +10366,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6">
       <c r="A188" s="4">
         <v>42991.1875</v>
       </c>
@@ -11389,7 +10386,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6">
       <c r="A189" s="4">
         <v>42991.229166666664</v>
       </c>
@@ -11409,7 +10406,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6">
       <c r="A190" s="4">
         <v>42991.270833333336</v>
       </c>
@@ -11429,7 +10426,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6">
       <c r="A191" s="4">
         <v>42991.3125</v>
       </c>
@@ -11449,7 +10446,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6">
       <c r="A192" s="4">
         <v>42991.354166666664</v>
       </c>
@@ -11469,7 +10466,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6">
       <c r="A193" s="4">
         <v>42991.395833333336</v>
       </c>
@@ -11489,7 +10486,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6">
       <c r="A194" s="4">
         <v>42991.4375</v>
       </c>
@@ -11509,7 +10506,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6">
       <c r="A195" s="4">
         <v>42991.479166666664</v>
       </c>
@@ -11529,7 +10526,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6">
       <c r="A196" s="4">
         <v>42991.520833333336</v>
       </c>
@@ -11549,7 +10546,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6">
       <c r="A197" s="4">
         <v>42991.5625</v>
       </c>
@@ -11569,7 +10566,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6">
       <c r="A198" s="4">
         <v>42991.604166666664</v>
       </c>
@@ -11589,7 +10586,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6">
       <c r="A199" s="4">
         <v>42991.645833333336</v>
       </c>
@@ -11609,7 +10606,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6">
       <c r="A200" s="4">
         <v>42991.6875</v>
       </c>
@@ -11629,7 +10626,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6">
       <c r="A201" s="4">
         <v>42991.729166666664</v>
       </c>
@@ -11658,17 +10655,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N19:P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -11688,7 +10685,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="6">
         <v>42983.416666666664</v>
       </c>
@@ -11708,7 +10705,7 @@
         <v>95.88</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="6">
         <v>42983.763888888891</v>
       </c>
@@ -11728,7 +10725,7 @@
         <v>95.635000000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="6">
         <v>42984.409722222219</v>
       </c>
@@ -11748,7 +10745,7 @@
         <v>95.41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="6">
         <v>42984.729166666664</v>
       </c>
@@ -11768,7 +10765,7 @@
         <v>95.449999999999989</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="6">
         <v>42985.409722222219</v>
       </c>
@@ -11788,7 +10785,7 @@
         <v>95.380000000000024</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="6">
         <v>42985.75</v>
       </c>
@@ -11808,7 +10805,7 @@
         <v>95.174999999999983</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="6">
         <v>42986.395833333336</v>
       </c>
@@ -11828,7 +10825,7 @@
         <v>95.1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="6">
         <v>42990.381944444445</v>
       </c>
@@ -11848,7 +10845,7 @@
         <v>92.96</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="6">
         <v>42990.75</v>
       </c>
@@ -11868,7 +10865,7 @@
         <v>91.185000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="6">
         <v>42991.381944444445</v>
       </c>
@@ -11888,7 +10885,7 @@
         <v>91.594999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="6">
         <v>42991.736111111109</v>
       </c>
@@ -11921,13 +10918,13 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="6" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -11947,7 +10944,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="8">
         <v>42983.416666666664</v>
       </c>
@@ -11967,7 +10964,7 @@
         <v>0.19899748742132367</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="8">
         <v>42983.763888888891</v>
       </c>
@@ -11987,7 +10984,7 @@
         <v>0.14585952145814859</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="8">
         <v>42984.409722222219</v>
       </c>
@@ -12007,7 +11004,7 @@
         <v>0.16703293088489873</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="8">
         <v>42984.729166666664</v>
       </c>
@@ -12027,7 +11024,7 @@
         <v>0.20856653614614198</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="8">
         <v>42985.409722222219</v>
       </c>
@@ -12047,7 +11044,7 @@
         <v>0.11661903789690646</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="8">
         <v>42985.75</v>
       </c>
@@ -12067,7 +11064,7 @@
         <v>0.20946360065653452</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="8">
         <v>42986.395833333336</v>
       </c>
@@ -12087,7 +11084,7 @@
         <v>0.29999999999999932</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="8">
         <v>42990.381944444445</v>
       </c>
@@ -12107,7 +11104,7 @@
         <v>0.26343879744639054</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="8">
         <v>42990.75</v>
       </c>
@@ -12127,7 +11124,7 @@
         <v>0.68503649537816558</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="8">
         <v>42991.381944444445</v>
       </c>
@@ -12147,7 +11144,7 @@
         <v>0.49646248599466131</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="8">
         <v>42991.736111111109</v>
       </c>
